--- a/Econ_Data.xlsx
+++ b/Econ_Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Category</t>
   </si>
@@ -33,139 +33,192 @@
     <t>Q3</t>
   </si>
   <si>
-    <t xml:space="preserve">        National income</t>
-  </si>
-  <si>
     <t>Compensation of employees</t>
   </si>
   <si>
-    <t xml:space="preserve">    Wages and salaries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Government</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Supplements to wages and salaries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Employer contributions for employee pension and insurance funds1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Employer contributions for government social insurance</t>
+    <t>Rental income of persons with CCAdj</t>
+  </si>
+  <si>
+    <t>Corporate profits with IVA and CCAdj</t>
+  </si>
+  <si>
+    <t>Net interest and miscellaneous payments</t>
+  </si>
+  <si>
+    <t>Taxes on production and imports</t>
+  </si>
+  <si>
+    <t>Less: Subsidies2</t>
+  </si>
+  <si>
+    <t>Business current transfer payments (net)</t>
+  </si>
+  <si>
+    <t>Current surplus of government enterprises2</t>
+  </si>
+  <si>
+    <t>National income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wages and salaries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Government</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supplements to wages and salaries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employer contributions for employee pension and insurance funds1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employer contributions for government social insurance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Proprietors' income with IVA and CCAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Nonfarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Farm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nonfarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taxes on corporate income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profits after tax with IVA and CCAdj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Net dividends</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Undistributed profits with IVA and CCAdj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To persons (net)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To government (net)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To the rest of the world (net)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Net cash flow with IVA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumption of fixed capital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Undistributed profits with IVA and CCAdj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Less: Capital transfers paid (net)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proprietors' income with IVA and CCAdj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Farm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proprietors' income with IVA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nonfarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proprietors' income (without IVA and CCAdj)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inventory valuation adjustment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capital consumption adjustment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capital consumption adjustment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inventory valuation adjustment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Net dividends</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Undistributed profits (without IVA and CCAdj)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profits after tax (without IVA and CCAdj)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taxes on corporate income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profits before tax (without IVA and CCAdj)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corporate profits with IVA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corporate profits with IVA and CCAdj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capital consumption adjustment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rental income of persons (without CCAdj)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Rental income of persons with CCAdj</t>
-  </si>
-  <si>
-    <t>Corporate profits with IVA and CCAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Taxes on corporate income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Profits after tax with IVA and CCAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Net dividends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Undistributed profits with IVA and CCAdj</t>
-  </si>
-  <si>
-    <t>Net interest and miscellaneous payments</t>
-  </si>
-  <si>
-    <t>Taxes on production and imports</t>
-  </si>
-  <si>
-    <t>Less: Subsidies2</t>
-  </si>
-  <si>
-    <t>Business current transfer payments (net)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    To persons (net)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    To government (net)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    To the rest of the world (net)</t>
-  </si>
-  <si>
-    <t>Current surplus of government enterprises2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Net cash flow with IVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Consumption of fixed capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Less: Capital transfers paid (net)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Proprietors' income with IVA and CCAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Proprietors' income with IVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Capital consumption adjustment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Nonfarm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Proprietors' income (without IVA and CCAdj)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Inventory valuation adjustment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Rental income of persons with CCAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Rental income of persons (without CCAdj)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Capital consumption adjustment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Corporate profits with IVA and CCAdj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Corporate profits with IVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Profits before tax (without IVA and CCAdj)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Taxes on corporate income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Profits after tax (without IVA and CCAdj)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Net dividends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Undistributed profits (without IVA and CCAdj)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capital consumption adjustment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -209,8 +262,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -544,12 +600,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="73.5" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -563,8 +624,8 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
+      <c r="A2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B2">
         <v>18405.5</v>
@@ -577,8 +638,8 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B3">
         <v>11674.4</v>
@@ -591,8 +652,8 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
+      <c r="A4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B4">
         <v>9526.1</v>
@@ -605,8 +666,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
+      <c r="A5" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B5">
         <v>1481.6</v>
@@ -619,8 +680,8 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
+      <c r="A6" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B6">
         <v>8044.5</v>
@@ -633,8 +694,8 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
+      <c r="A7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B7">
         <v>2148.3000000000002</v>
@@ -647,8 +708,8 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>10</v>
+      <c r="A8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B8">
         <v>1482.3</v>
@@ -661,8 +722,8 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>11</v>
+      <c r="A9" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B9">
         <v>666</v>
@@ -675,8 +736,8 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>12</v>
+      <c r="A10" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B10">
         <v>1706</v>
@@ -689,8 +750,8 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>13</v>
+      <c r="A11" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B11">
         <v>56.4</v>
@@ -703,8 +764,8 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>14</v>
+      <c r="A12" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B12">
         <v>1649.6</v>
@@ -717,8 +778,8 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>15</v>
+      <c r="A13" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B13">
         <v>802.3</v>
@@ -731,8 +792,8 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>16</v>
+      <c r="A14" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B14">
         <v>2035</v>
@@ -745,8 +806,8 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>17</v>
+      <c r="A15" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B15">
         <v>255.6</v>
@@ -759,8 +820,8 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>18</v>
+      <c r="A16" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B16">
         <v>1779.5</v>
@@ -773,8 +834,8 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>19</v>
+      <c r="A17" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B17">
         <v>1379.5</v>
@@ -787,8 +848,8 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>20</v>
+      <c r="A18" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B18">
         <v>400</v>
@@ -801,8 +862,8 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>21</v>
+      <c r="A19" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B19">
         <v>588.9</v>
@@ -815,8 +876,8 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>22</v>
+      <c r="A20" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B20">
         <v>1530</v>
@@ -829,8 +890,8 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>23</v>
+      <c r="A21" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B21">
         <v>75.099999999999994</v>
@@ -843,8 +904,8 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>24</v>
+      <c r="A22" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B22">
         <v>156.80000000000001</v>
@@ -857,8 +918,8 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>25</v>
+      <c r="A23" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B23">
         <v>45.9</v>
@@ -871,8 +932,8 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>26</v>
+      <c r="A24" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B24">
         <v>85.4</v>
@@ -885,8 +946,8 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>27</v>
+      <c r="A25" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B25">
         <v>25.6</v>
@@ -899,8 +960,8 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>28</v>
+      <c r="A26" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B26">
         <v>-12.8</v>
@@ -913,7 +974,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B27">
@@ -927,8 +988,8 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>20</v>
+      <c r="A28" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B28">
         <v>400</v>
@@ -941,7 +1002,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B29">
@@ -955,8 +1016,8 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>31</v>
+      <c r="A30" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B30">
         <v>-0.9</v>
@@ -969,8 +1030,8 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>32</v>
+      <c r="A31" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B31">
         <v>1706</v>
@@ -983,8 +1044,8 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>33</v>
+      <c r="A32" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B32">
         <v>56.4</v>
@@ -997,8 +1058,8 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>34</v>
+      <c r="A33" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B33">
         <v>63</v>
@@ -1011,8 +1072,8 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>35</v>
+      <c r="A34" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B34">
         <v>-6.6</v>
@@ -1025,7 +1086,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B35">
@@ -1039,7 +1100,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B36">
@@ -1053,7 +1114,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B37">
@@ -1067,8 +1128,8 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>35</v>
+      <c r="A38" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B38">
         <v>361.2</v>
@@ -1081,8 +1142,8 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>39</v>
+      <c r="A39" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B39">
         <v>802.3</v>
@@ -1095,8 +1156,8 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>40</v>
+      <c r="A40" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B40">
         <v>825.2</v>
@@ -1109,8 +1170,8 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>41</v>
+      <c r="A41" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B41">
         <v>-22.9</v>
@@ -1123,8 +1184,8 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>42</v>
+      <c r="A42" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B42">
         <v>2035</v>
@@ -1137,8 +1198,8 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>43</v>
+      <c r="A43" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B43">
         <v>2053.5</v>
@@ -1151,8 +1212,8 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>44</v>
+      <c r="A44" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B44">
         <v>1994.7</v>
@@ -1165,7 +1226,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B45">
@@ -1179,8 +1240,8 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>46</v>
+      <c r="A46" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B46">
         <v>1739.1</v>
@@ -1193,8 +1254,8 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>47</v>
+      <c r="A47" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B47">
         <v>1379.5</v>
@@ -1207,8 +1268,8 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>48</v>
+      <c r="A48" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B48">
         <v>359.6</v>
@@ -1221,8 +1282,8 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>38</v>
+      <c r="A49" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B49">
         <v>58.9</v>
@@ -1235,8 +1296,8 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>41</v>
+      <c r="A50" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B50">
         <v>-18.5</v>
